--- a/Weekly Tasks Folder/27.02.2016 - 04.03.2016/27-02-2016 - 04-03-2016 Белявский Иван.xlsx
+++ b/Weekly Tasks Folder/27.02.2016 - 04.03.2016/27-02-2016 - 04-03-2016 Белявский Иван.xlsx
@@ -37,7 +37,13 @@
     <t>пятница</t>
   </si>
   <si>
-    <t>анализ проделанной работы , исправление ошибок , подготовка плана на след. Неделю</t>
+    <t xml:space="preserve">                                                          План на неделю с 27.02.16  по 04.03.16</t>
+  </si>
+  <si>
+    <t>исправление ошибок в авторизации, добавление ролей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">изучение Frameworka  Identity </t>
   </si>
   <si>
     <r>
@@ -52,29 +58,23 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Общая задача: добавление ролей в авторизацию. Добавление функции вызова системных утилит(затрата ресурсов сервера)</t>
+      <t>Общая задача: добавление ролей в авторизацию. Интеграция приложения .</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">                                                          План на неделю с 27.02.16  по 04.03.16</t>
-  </si>
-  <si>
-    <t>исправление ошибок в авторизации, добавление ролей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">тестирование ограничения функционала по ролям </t>
-  </si>
-  <si>
-    <t xml:space="preserve">изучение примеров вызова системных утилит из web интерфейса </t>
-  </si>
-  <si>
-    <t>попытка реализации функций в приложении</t>
-  </si>
-  <si>
-    <t>тестирование функции "использование ресурсов сервера"</t>
-  </si>
-  <si>
-    <t>оптимизация приложения .</t>
+    <t>попытки соединение с android приложением.</t>
+  </si>
+  <si>
+    <t>изучение Rest в MVC</t>
+  </si>
+  <si>
+    <t>наладка передачи авторизации и фильмов в android приложение</t>
+  </si>
+  <si>
+    <t>сборка всех модулей в единое приложение.</t>
+  </si>
+  <si>
+    <t>изучения примеров синхронизации всех частей приложения</t>
   </si>
 </sst>
 </file>
@@ -582,7 +582,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +594,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -634,7 +634,7 @@
     </row>
     <row r="3" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -694,7 +694,7 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -766,7 +766,7 @@
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -790,7 +790,7 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -838,7 +838,7 @@
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
